--- a/webApp/uploads/coupons.xlsx
+++ b/webApp/uploads/coupons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wazenshbair/SnT/EEthique/blockchain-based-sukuk/sukuk-system-Github/webApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF15AE-0530-8641-BBF0-14EDC6EC0AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3A85D-411F-DB42-B133-70CD23B2D34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
+    <workbookView xWindow="5960" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1593640659</v>
+        <v>1593981883</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1593644259</v>
+        <v>1593985483</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1593647859</v>
+        <v>1593989083</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1593651459</v>
+        <v>1593992683</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1593655059</v>
+        <v>1593996283</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1593658659</v>
+        <v>1593999883</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1593662259</v>
+        <v>1594003483</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1593665859</v>
+        <v>1594007083</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1593669459</v>
+        <v>1594010683</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1593673059</v>
+        <v>1594014283</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1593676659</v>
+        <v>1594017883</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1593680259</v>
+        <v>1594021483</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1593683859</v>
+        <v>1594025083</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1593687459</v>
+        <v>1594028683</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1593691059</v>
+        <v>1594032283</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1593694659</v>
+        <v>1594035883</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1593698259</v>
+        <v>1594039483</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1593701859</v>
+        <v>1594043083</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1593705459</v>
+        <v>1594046683</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1593643059</v>
+        <v>1593984283</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
